--- a/classification/droptc/modern-bert/unfreeze/87212562/prediction.xlsx
+++ b/classification/droptc/modern-bert/unfreeze/87212562/prediction.xlsx
@@ -478,19 +478,19 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E2" t="b">
         <v>1</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9976615905761719</v>
+        <v>0.8355880379676819</v>
       </c>
     </row>
     <row r="3">
@@ -506,19 +506,19 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9895496368408203</v>
+        <v>0.9823228716850281</v>
       </c>
     </row>
     <row r="4">
@@ -534,19 +534,19 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E4" t="b">
         <v>1</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9993471503257751</v>
+        <v>0.9958034157752991</v>
       </c>
     </row>
     <row r="5">
@@ -562,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -571,10 +571,10 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9973636269569397</v>
+        <v>0.9994114637374878</v>
       </c>
     </row>
     <row r="6">
@@ -590,19 +590,19 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E6" t="b">
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9935436248779297</v>
+        <v>0.9987509250640869</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.9992879033088684</v>
       </c>
     </row>
     <row r="8">
@@ -651,14 +651,14 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E8" t="b">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9988996982574463</v>
+        <v>0.9293931722640991</v>
       </c>
     </row>
     <row r="9">
@@ -674,19 +674,19 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E9" t="b">
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.999133288860321</v>
+        <v>0.9938315153121948</v>
       </c>
     </row>
     <row r="10">
@@ -702,19 +702,19 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E10" t="b">
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9996706247329712</v>
+        <v>0.9971418976783752</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>1</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9992738366127014</v>
+        <v>0.9994018077850342</v>
       </c>
     </row>
     <row r="12">
@@ -758,19 +758,19 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E12" t="b">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9945803284645081</v>
+        <v>0.9922429919242859</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9996868371963501</v>
+        <v>0.9992936849594116</v>
       </c>
     </row>
     <row r="14">
@@ -814,19 +814,19 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E14" t="b">
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9996689558029175</v>
+        <v>0.9968268275260925</v>
       </c>
     </row>
     <row r="15">
@@ -842,19 +842,19 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E15" t="b">
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9945595860481262</v>
+        <v>0.995539128780365</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9901435375213623</v>
+        <v>0.9759964942932129</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.999133288860321</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="18">
@@ -926,19 +926,19 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E18" t="b">
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9963834285736084</v>
+        <v>0.9983863830566406</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9996789693832397</v>
+        <v>0.9995211362838745</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.9995267391204834</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9997240900993347</v>
+        <v>0.9996084570884705</v>
       </c>
     </row>
     <row r="22">
@@ -1038,19 +1038,19 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E22" t="b">
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9965347051620483</v>
+        <v>0.9989476799964905</v>
       </c>
     </row>
     <row r="23">
@@ -1066,19 +1066,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E23" t="b">
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9975911378860474</v>
+        <v>0.9822348952293396</v>
       </c>
     </row>
     <row r="24">
@@ -1094,19 +1094,19 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E24" t="b">
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9994081258773804</v>
+        <v>0.9966367483139038</v>
       </c>
     </row>
     <row r="25">
@@ -1122,19 +1122,19 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E25" t="b">
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9933191537857056</v>
+        <v>0.9738349914550781</v>
       </c>
     </row>
     <row r="26">
@@ -1150,19 +1150,19 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E26" t="b">
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9945595860481262</v>
+        <v>0.9936675429344177</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9995953440666199</v>
+        <v>0.9994714856147766</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9997761845588684</v>
+        <v>0.9995068311691284</v>
       </c>
     </row>
     <row r="29">
@@ -1234,19 +1234,19 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E29" t="b">
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9994637370109558</v>
+        <v>0.9912658333778381</v>
       </c>
     </row>
     <row r="30">
@@ -1262,7 +1262,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1271,10 +1271,10 @@
         </is>
       </c>
       <c r="E30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8607010245323181</v>
+        <v>0.9994388222694397</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9996345043182373</v>
+        <v>0.9991608858108521</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9997547268867493</v>
+        <v>0.9995986819267273</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9997406601905823</v>
+        <v>0.9996147155761719</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.9993571639060974</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.9776371717453003</v>
       </c>
     </row>
     <row r="36">
@@ -1430,19 +1430,19 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E36" t="b">
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9994999170303345</v>
+        <v>0.9177794456481934</v>
       </c>
     </row>
     <row r="37">
@@ -1458,19 +1458,19 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E37" t="b">
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9768072962760925</v>
+        <v>0.9992584586143494</v>
       </c>
     </row>
     <row r="38">
@@ -1491,14 +1491,14 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9996297359466553</v>
+        <v>0.9968141913414001</v>
       </c>
     </row>
     <row r="39">
@@ -1514,19 +1514,19 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E39" t="b">
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9996210336685181</v>
+        <v>0.9442481398582458</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9995200634002686</v>
+        <v>0.9991600513458252</v>
       </c>
     </row>
     <row r="41">
@@ -1570,19 +1570,19 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E41" t="b">
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9949042797088623</v>
+        <v>0.9958034157752991</v>
       </c>
     </row>
     <row r="42">
@@ -1598,19 +1598,19 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E42" t="b">
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.9911158084869385</v>
+        <v>0.9994229078292847</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9996616840362549</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="44">
@@ -1654,19 +1654,19 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9828405380249023</v>
+        <v>0.9938315153121948</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.9990750551223755</v>
+        <v>0.9989562034606934</v>
       </c>
     </row>
     <row r="46">
@@ -1710,19 +1710,19 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E46" t="b">
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9997673630714417</v>
+        <v>0.996356725692749</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9992135763168335</v>
+        <v>0.9996623992919922</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9996447563171387</v>
+        <v>0.9989762306213379</v>
       </c>
     </row>
     <row r="49">
@@ -1794,19 +1794,19 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E49" t="b">
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9963401556015015</v>
+        <v>0.9996687173843384</v>
       </c>
     </row>
     <row r="50">
@@ -1822,19 +1822,19 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9995027780532837</v>
+        <v>0.9705575108528137</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9994040727615356</v>
+        <v>0.999625563621521</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.99969482421875</v>
+        <v>0.9995513558387756</v>
       </c>
     </row>
     <row r="53">
@@ -1906,19 +1906,19 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E53" t="b">
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.7317872643470764</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="54">
@@ -1934,19 +1934,19 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E54" t="b">
         <v>1</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9994741082191467</v>
+        <v>0.9812178611755371</v>
       </c>
     </row>
     <row r="55">
@@ -1962,19 +1962,19 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E55" t="b">
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9953247308731079</v>
+        <v>0.9992764592170715</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9984949827194214</v>
+        <v>0.9997530579566956</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9993762373924255</v>
+        <v>0.9994865655899048</v>
       </c>
     </row>
     <row r="58">
@@ -2046,19 +2046,19 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.9891735315322876</v>
+        <v>0.9982762336730957</v>
       </c>
     </row>
     <row r="59">
@@ -2074,19 +2074,19 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E59" t="b">
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9997296929359436</v>
+        <v>0.9966367483139038</v>
       </c>
     </row>
     <row r="60">
@@ -2102,19 +2102,19 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E60" t="b">
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9945595860481262</v>
+        <v>0.9991539716720581</v>
       </c>
     </row>
     <row r="61">
@@ -2130,7 +2130,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2139,10 +2139,10 @@
         </is>
       </c>
       <c r="E61" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.5374150276184082</v>
+        <v>0.9963394403457642</v>
       </c>
     </row>
     <row r="62">
@@ -2158,19 +2158,19 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9990330934524536</v>
+        <v>0.9844643473625183</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9996805191040039</v>
+        <v>0.9990876913070679</v>
       </c>
     </row>
     <row r="64">
@@ -2214,19 +2214,19 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
         <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.9994637370109558</v>
+        <v>0.996096670627594</v>
       </c>
     </row>
     <row r="65">
@@ -2242,19 +2242,19 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>0.997671902179718</v>
+        <v>0.9746073484420776</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.9997132420539856</v>
       </c>
     </row>
     <row r="67">
@@ -2298,19 +2298,19 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E67" t="b">
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.992251455783844</v>
       </c>
     </row>
     <row r="68">
@@ -2326,19 +2326,19 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E68" t="b">
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9840317368507385</v>
+        <v>0.9991447925567627</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9995935559272766</v>
+        <v>0.9993211030960083</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9998302459716797</v>
+        <v>0.9994789958000183</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>1</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9995489716529846</v>
+        <v>0.9994674324989319</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9924991726875305</v>
+        <v>0.9996229410171509</v>
       </c>
     </row>
     <row r="73">
@@ -2466,19 +2466,19 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E73" t="b">
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9996796846389771</v>
+        <v>0.9954614043235779</v>
       </c>
     </row>
     <row r="74">
@@ -2494,19 +2494,19 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>RegulationViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E74" t="b">
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.9667094945907593</v>
+        <v>0.9997230172157288</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9998156428337097</v>
+        <v>0.9996830224990845</v>
       </c>
     </row>
     <row r="76">
@@ -2550,19 +2550,19 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E76" t="b">
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9997541308403015</v>
+        <v>0.9941337704658508</v>
       </c>
     </row>
     <row r="77">
@@ -2578,19 +2578,19 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E77" t="b">
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9997541308403015</v>
+        <v>0.995972216129303</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9997047781944275</v>
+        <v>0.9975889921188354</v>
       </c>
     </row>
     <row r="79">
@@ -2634,19 +2634,19 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E79" t="b">
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9997465014457703</v>
+        <v>0.9858812093734741</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9996843338012695</v>
+        <v>0.9993021488189697</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.999756395816803</v>
+        <v>0.9996147155761719</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9996069073677063</v>
+        <v>0.9995738863945007</v>
       </c>
     </row>
     <row r="83">
@@ -2746,19 +2746,19 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E83" t="b">
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.996117115020752</v>
+        <v>0.9984887838363647</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.9338510036468506</v>
+        <v>0.9990785121917725</v>
       </c>
     </row>
     <row r="85">
@@ -2802,19 +2802,19 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E85" t="b">
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9961950778961182</v>
+        <v>0.9991010427474976</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9993560910224915</v>
+        <v>0.9994463324546814</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9956560134887695</v>
+        <v>0.996799111366272</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9993189573287964</v>
+        <v>0.9996598958969116</v>
       </c>
     </row>
     <row r="89">
@@ -2914,19 +2914,19 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E89" t="b">
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.997643768787384</v>
+        <v>0.999562680721283</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.9979525804519653</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9998397827148438</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="92">
@@ -2998,19 +2998,19 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.9980642199516296</v>
+        <v>0.9994189739227295</v>
       </c>
     </row>
     <row r="93">
@@ -3026,19 +3026,19 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E93" t="b">
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9992757439613342</v>
+        <v>0.9955070018768311</v>
       </c>
     </row>
     <row r="94">
@@ -3054,19 +3054,19 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E94" t="b">
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.999795138835907</v>
+        <v>0.9966712594032288</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.999516487121582</v>
+        <v>0.999444305896759</v>
       </c>
     </row>
     <row r="96">
@@ -3110,19 +3110,19 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E96" t="b">
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9981060028076172</v>
+        <v>0.9849252104759216</v>
       </c>
     </row>
     <row r="97">
@@ -3138,7 +3138,7 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
@@ -3147,10 +3147,10 @@
         </is>
       </c>
       <c r="E97" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>0.9990528225898743</v>
+        <v>0.9988850951194763</v>
       </c>
     </row>
     <row r="98">
@@ -3166,19 +3166,19 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E98" t="b">
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9996345043182373</v>
+        <v>0.995539128780365</v>
       </c>
     </row>
     <row r="99">
@@ -3194,19 +3194,19 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E99" t="b">
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.999426007270813</v>
+        <v>0.9952101111412048</v>
       </c>
     </row>
     <row r="100">
@@ -3222,19 +3222,19 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E100" t="b">
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.9997009038925171</v>
+        <v>0.9863482713699341</v>
       </c>
     </row>
     <row r="101">
@@ -3250,19 +3250,19 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E101" t="b">
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9182120561599731</v>
+        <v>0.9956009387969971</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9997060894966125</v>
+        <v>0.9996582269668579</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.9135118126869202</v>
+        <v>0.9974080920219421</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.999539852142334</v>
+        <v>0.9993346333503723</v>
       </c>
     </row>
     <row r="105">
@@ -3362,7 +3362,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3371,10 +3371,10 @@
         </is>
       </c>
       <c r="E105" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9996289014816284</v>
+        <v>0.9988722205162048</v>
       </c>
     </row>
     <row r="106">
@@ -3390,19 +3390,19 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E106" t="b">
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.9992994070053101</v>
+        <v>0.9955452680587769</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9996752738952637</v>
+        <v>0.999516487121582</v>
       </c>
     </row>
     <row r="108">
@@ -3446,19 +3446,19 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E108" t="b">
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9958158135414124</v>
+        <v>0.9995477795600891</v>
       </c>
     </row>
     <row r="109">
@@ -3474,19 +3474,19 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E109" t="b">
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9963401556015015</v>
+        <v>0.9997360110282898</v>
       </c>
     </row>
     <row r="110">
@@ -3502,19 +3502,19 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E110" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9073772430419922</v>
+        <v>0.9993407130241394</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9995971322059631</v>
+        <v>0.9994494318962097</v>
       </c>
     </row>
     <row r="112">
@@ -3558,19 +3558,19 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E112" t="b">
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9975600242614746</v>
+        <v>0.9995263814926147</v>
       </c>
     </row>
     <row r="113">
@@ -3586,7 +3586,7 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
@@ -3595,10 +3595,10 @@
         </is>
       </c>
       <c r="E113" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.4367523491382599</v>
+        <v>0.9996115565299988</v>
       </c>
     </row>
     <row r="114">
@@ -3614,19 +3614,19 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>CommunicationIssue</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E114" t="b">
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9866151213645935</v>
+        <v>0.9991711378097534</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.4752142429351807</v>
       </c>
     </row>
     <row r="116">
@@ -3670,7 +3670,7 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
@@ -3679,10 +3679,10 @@
         </is>
       </c>
       <c r="E116" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9995892643928528</v>
+        <v>0.9979482293128967</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9994540810585022</v>
+        <v>0.9997065663337708</v>
       </c>
     </row>
     <row r="118">
@@ -3726,19 +3726,19 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E118" t="b">
         <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.993328332901001</v>
+        <v>0.9996192455291748</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9915627241134644</v>
+        <v>0.9941337704658508</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9993216991424561</v>
+        <v>0.9990419745445251</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9997891783714294</v>
+        <v>0.9994379878044128</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.9985634684562683</v>
+        <v>0.9969594478607178</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9992343187332153</v>
+        <v>0.9994414448738098</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.9995771050453186</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9970887303352356</v>
+        <v>0.9955293536186218</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.9412405490875244</v>
+        <v>0.998744010925293</v>
       </c>
     </row>
     <row r="127">
@@ -3978,19 +3978,19 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E127" t="b">
         <v>1</v>
       </c>
       <c r="F127" t="n">
-        <v>0.997643768787384</v>
+        <v>0.9924364686012268</v>
       </c>
     </row>
     <row r="128">
@@ -4006,19 +4006,19 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>CommunicationIssue</t>
         </is>
       </c>
       <c r="E128" t="b">
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9996762275695801</v>
+        <v>0.5107601284980774</v>
       </c>
     </row>
     <row r="129">
@@ -4034,19 +4034,19 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E129" t="b">
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9947546720504761</v>
+        <v>0.9980645775794983</v>
       </c>
     </row>
     <row r="130">
@@ -4062,19 +4062,19 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E130" t="b">
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.5280158519744873</v>
+        <v>0.9988559484481812</v>
       </c>
     </row>
     <row r="131">
@@ -4090,19 +4090,19 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
+          <t>Normal</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
           <t>HardwareFault</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>HardwareFault</t>
-        </is>
-      </c>
       <c r="E131" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9966304898262024</v>
+        <v>0.9944978356361389</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9997288584709167</v>
+        <v>0.9995875954627991</v>
       </c>
     </row>
     <row r="133">
@@ -4146,19 +4146,19 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E133" t="b">
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9996631145477295</v>
+        <v>0.9956353306770325</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9995843768119812</v>
+        <v>0.9996340274810791</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9997478127479553</v>
+        <v>0.9993293285369873</v>
       </c>
     </row>
     <row r="136">
@@ -4230,19 +4230,19 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E136" t="b">
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9966304898262024</v>
+        <v>0.9987555742263794</v>
       </c>
     </row>
     <row r="137">
@@ -4263,14 +4263,14 @@
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E137" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9645332098007202</v>
+        <v>0.995263934135437</v>
       </c>
     </row>
     <row r="138">
@@ -4286,7 +4286,7 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
@@ -4295,10 +4295,10 @@
         </is>
       </c>
       <c r="E138" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.999408483505249</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="139">
@@ -4314,19 +4314,19 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E139" t="b">
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9996662139892578</v>
+        <v>0.9955452680587769</v>
       </c>
     </row>
     <row r="140">
@@ -4342,19 +4342,19 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E140" t="b">
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.99319988489151</v>
+        <v>0.9991254210472107</v>
       </c>
     </row>
     <row r="141">
@@ -4382,7 +4382,7 @@
         <v>1</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9998136162757874</v>
+        <v>0.9996782541275024</v>
       </c>
     </row>
     <row r="142">
@@ -4398,19 +4398,19 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E142" t="b">
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9994592070579529</v>
+        <v>0.9978347420692444</v>
       </c>
     </row>
     <row r="143">
@@ -4426,19 +4426,19 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E143" t="b">
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9884446859359741</v>
+        <v>0.9992882609367371</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9997273087501526</v>
+        <v>0.9995506405830383</v>
       </c>
     </row>
     <row r="145">
@@ -4482,19 +4482,19 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E145" t="b">
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9972217082977295</v>
+        <v>0.9951890707015991</v>
       </c>
     </row>
     <row r="146">
@@ -4515,14 +4515,14 @@
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E146" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.995309054851532</v>
+        <v>0.9993683695793152</v>
       </c>
     </row>
     <row r="147">
@@ -4538,19 +4538,19 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E147" t="b">
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9976198077201843</v>
+        <v>0.9994961023330688</v>
       </c>
     </row>
     <row r="148">
@@ -4571,14 +4571,14 @@
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E148" t="b">
         <v>0</v>
       </c>
       <c r="F148" t="n">
-        <v>0.94733726978302</v>
+        <v>0.9966932535171509</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9994353652000427</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="150">
@@ -4622,19 +4622,19 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E150" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9963886737823486</v>
+        <v>0.4963545203208923</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9996418952941895</v>
+        <v>0.9995655417442322</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9997952580451965</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="153">
@@ -4706,7 +4706,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -4715,10 +4715,10 @@
         </is>
       </c>
       <c r="E153" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9997460246086121</v>
+        <v>0.9976200461387634</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9587786197662354</v>
+        <v>0.999516487121582</v>
       </c>
     </row>
     <row r="155">
@@ -4762,19 +4762,19 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E155" t="b">
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.6183280944824219</v>
+        <v>0.999403715133667</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9979453682899475</v>
+        <v>0.9995852112770081</v>
       </c>
     </row>
     <row r="157">
@@ -4818,19 +4818,19 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E157" t="b">
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9997411370277405</v>
+        <v>0.9966380596160889</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9952561259269714</v>
+        <v>0.9996540546417236</v>
       </c>
     </row>
     <row r="159">
@@ -4874,19 +4874,19 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E159" t="b">
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9960667490959167</v>
+        <v>0.9994668364524841</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9995978474617004</v>
+        <v>0.9989268183708191</v>
       </c>
     </row>
     <row r="161">
@@ -4930,19 +4930,19 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E161" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9996102452278137</v>
+        <v>0.4028249382972717</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="n">
-        <v>0.9995743632316589</v>
+        <v>0.9871540665626526</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9992857575416565</v>
+        <v>0.9995527863502502</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.999680757522583</v>
+        <v>0.9994112253189087</v>
       </c>
     </row>
     <row r="165">
@@ -5042,19 +5042,19 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E165" t="b">
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9963958859443665</v>
+        <v>0.9995971322059631</v>
       </c>
     </row>
     <row r="166">
@@ -5070,19 +5070,19 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E166" t="b">
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9995081424713135</v>
+        <v>0.9962671399116516</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9997566342353821</v>
+        <v>0.9997443556785583</v>
       </c>
     </row>
     <row r="168">
@@ -5126,19 +5126,19 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E168" t="b">
         <v>1</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9923585057258606</v>
+        <v>0.9995488524436951</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9994300007820129</v>
+        <v>0.9996134638786316</v>
       </c>
     </row>
     <row r="170">
@@ -5182,19 +5182,19 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E170" t="b">
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9901435375213623</v>
+        <v>0.9996728897094727</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>1</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9893452525138855</v>
+        <v>0.9994520545005798</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9994668364524841</v>
+        <v>0.9995467066764832</v>
       </c>
     </row>
     <row r="173">
@@ -5266,19 +5266,19 @@
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D173" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E173" t="b">
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9705288410186768</v>
+        <v>0.9994555115699768</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9996718168258667</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9985421895980835</v>
+        <v>0.9995218515396118</v>
       </c>
     </row>
     <row r="176">
@@ -5350,19 +5350,19 @@
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D176" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E176" t="b">
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.7952602505683899</v>
+        <v>0.9992764592170715</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9995686411857605</v>
+        <v>0.9996448755264282</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9996789693832397</v>
+        <v>0.9987645149230957</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9994255304336548</v>
+        <v>0.9991608858108521</v>
       </c>
     </row>
     <row r="180">
@@ -5462,19 +5462,19 @@
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D180" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E180" t="b">
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9968104958534241</v>
+        <v>0.9991063475608826</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9987615346908569</v>
+        <v>0.9993100166320801</v>
       </c>
     </row>
     <row r="182">
@@ -5518,19 +5518,19 @@
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D182" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E182" t="b">
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9995179176330566</v>
+        <v>0.996799111366272</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.9968876242637634</v>
+        <v>0.9955119490623474</v>
       </c>
     </row>
     <row r="184">
@@ -5574,19 +5574,19 @@
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D184" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E184" t="b">
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9975600242614746</v>
+        <v>0.9559415578842163</v>
       </c>
     </row>
     <row r="185">
@@ -5607,14 +5607,14 @@
       </c>
       <c r="D185" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E185" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>0.999822199344635</v>
+        <v>0.50688236951828</v>
       </c>
     </row>
     <row r="186">
@@ -5630,19 +5630,19 @@
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D186" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E186" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.7707267999649048</v>
+        <v>0.996799111366272</v>
       </c>
     </row>
     <row r="187">
@@ -5658,19 +5658,19 @@
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D187" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E187" t="b">
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9993448853492737</v>
+        <v>0.8352358937263489</v>
       </c>
     </row>
     <row r="188">
@@ -5686,19 +5686,19 @@
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D188" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E188" t="b">
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9996737241744995</v>
+        <v>0.9886849522590637</v>
       </c>
     </row>
     <row r="189">
@@ -5714,19 +5714,19 @@
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D189" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E189" t="b">
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9975600242614746</v>
+        <v>0.9994478821754456</v>
       </c>
     </row>
     <row r="190">
@@ -5742,19 +5742,19 @@
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D190" t="inlineStr">
         <is>
-          <t>ParamViolation</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E190" t="b">
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9942827224731445</v>
+        <v>0.9948348999023438</v>
       </c>
     </row>
     <row r="191">
@@ -5770,7 +5770,7 @@
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D191" t="inlineStr">
@@ -5779,10 +5779,10 @@
         </is>
       </c>
       <c r="E191" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>0.9998103976249695</v>
+        <v>0.9480016827583313</v>
       </c>
     </row>
     <row r="192">
@@ -5798,19 +5798,19 @@
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D192" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E192" t="b">
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9979941844940186</v>
+        <v>0.630028247833252</v>
       </c>
     </row>
     <row r="193">
@@ -5826,19 +5826,19 @@
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D193" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E193" t="b">
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9990583062171936</v>
+        <v>0.9955452680587769</v>
       </c>
     </row>
     <row r="194">
@@ -5854,19 +5854,19 @@
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D194" t="inlineStr">
         <is>
-          <t>HardwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E194" t="b">
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.997643768787384</v>
+        <v>0.9996517896652222</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9995526671409607</v>
+        <v>0.999237060546875</v>
       </c>
     </row>
     <row r="196">
@@ -5910,19 +5910,19 @@
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D196" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E196" t="b">
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.9997444748878479</v>
+        <v>0.9946485161781311</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9993727803230286</v>
+        <v>0.999189555644989</v>
       </c>
     </row>
     <row r="198">
@@ -5966,19 +5966,19 @@
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>RegulationViolation</t>
         </is>
       </c>
       <c r="E198" t="b">
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9995372295379639</v>
+        <v>0.8941159248352051</v>
       </c>
     </row>
     <row r="199">
@@ -5994,19 +5994,19 @@
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D199" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>0.7659843564033508</v>
+        <v>0.9644117951393127</v>
       </c>
     </row>
     <row r="200">
@@ -6022,19 +6022,19 @@
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SurroundingEnvironment</t>
         </is>
       </c>
       <c r="E200" t="b">
         <v>1</v>
       </c>
       <c r="F200" t="n">
-        <v>0.9996122717857361</v>
+        <v>0.9861544966697693</v>
       </c>
     </row>
     <row r="201">
@@ -6050,19 +6050,19 @@
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="D201" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E201" t="b">
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9952157735824585</v>
+        <v>0.9966367483139038</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9997456669807434</v>
+        <v>0.9994881153106689</v>
       </c>
     </row>
     <row r="203">
@@ -6106,19 +6106,19 @@
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="D203" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E203" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9831604361534119</v>
+        <v>0.9638899564743042</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.9923585057258606</v>
+        <v>0.9980429410934448</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9996827840805054</v>
+        <v>0.9992808699607849</v>
       </c>
     </row>
     <row r="206">
@@ -6195,14 +6195,14 @@
       </c>
       <c r="D206" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9950095415115356</v>
+        <v>0.9930803179740906</v>
       </c>
     </row>
     <row r="207">
@@ -6218,19 +6218,19 @@
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>Normal</t>
         </is>
       </c>
       <c r="E207" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.9781748056411743</v>
+        <v>0.9980065226554871</v>
       </c>
     </row>
     <row r="208">
@@ -6246,19 +6246,19 @@
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D208" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E208" t="b">
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.999811589717865</v>
+        <v>0.9940178394317627</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.9997761845588684</v>
+        <v>0.9990837574005127</v>
       </c>
     </row>
     <row r="210">
@@ -6302,19 +6302,19 @@
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="D210" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E210" t="b">
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.997957706451416</v>
+        <v>0.9979631900787354</v>
       </c>
     </row>
   </sheetData>
